--- a/master_produk.xlsx
+++ b/master_produk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kasir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A28955-CFD8-4F1B-8F02-1DFAD581A26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA083D0-3DD6-456B-9EC4-873FEA6974C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2610,8 +2610,8 @@
   <dimension ref="A1:BJ270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A270"/>
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I256" sqref="I256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -50252,7 +50252,8 @@
         <v>53</v>
       </c>
       <c r="E270">
-        <v>30</v>
+        <f>VLOOKUP(S270,Sheet2!$B$1:$H$28,7,FALSE)</f>
+        <v>23</v>
       </c>
       <c r="F270" t="s">
         <v>183</v>
@@ -50429,7 +50430,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
